--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783304.676556202</v>
+        <v>1727527.154413596</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111178</v>
+        <v>713587.7684111181</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205212</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6630989.067966846</v>
+        <v>6630989.067966844</v>
       </c>
     </row>
     <row r="11">
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>53.12360357118029</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>35.80024471803932</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>48.83589518354164</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>33.82851748887929</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>88.91888512441756</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>190.3453970742849</v>
+        <v>168.1666138174382</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>132.9225727996275</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>39.08117332487333</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>86.65804289016253</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>234.1536680083901</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1466,10 +1466,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>4.7127566081771</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>174.1736765502214</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>38.9764047481749</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356414</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>113.2084585850629</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>273.1385125388357</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1745,13 +1745,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>35.62533723234293</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>4.784812358211021</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>30.1574396106729</v>
       </c>
       <c r="U17" t="n">
-        <v>89.98174747814579</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>40.3994213202907</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>92.99816148657736</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>73.36175976093796</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>188.289524272563</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>173.1945231188782</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>7.878832234861702</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>74.33035460035615</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.12022702288998</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>179.0654404381968</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>287.0328539434448</v>
       </c>
       <c r="G23" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.4374641786401</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
@@ -2453,19 +2453,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>180.4607523827686</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>96.16248931405363</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>179.0654404381968</v>
       </c>
       <c r="V25" t="n">
-        <v>38.97640474817486</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>104.1189927826351</v>
       </c>
       <c r="U26" t="n">
-        <v>176.8640556737618</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>81.12752273267782</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>181.7638782208682</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>177.9974450266852</v>
       </c>
       <c r="U28" t="n">
-        <v>73.36175976093794</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>79.51911450541643</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>11.45727786104302</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2879,7 +2879,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>105.1601569953154</v>
+        <v>132.5764359736007</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>106.0890042129126</v>
+        <v>9.157260519343172</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>62.5158082372626</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>53.96864153531386</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3110,22 +3110,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>19.64726831169673</v>
       </c>
       <c r="U33" t="n">
-        <v>147.3962661676074</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>162.6046729685537</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>108.1467531374402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>43.50816460513254</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>135.0426754635054</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>205.0990980457142</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>141.6396260835076</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3587,16 +3587,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>29.69561828889669</v>
       </c>
       <c r="G39" t="n">
-        <v>120.7969278393456</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>157.1371927540225</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>53.96864153531364</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3821,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>43.10070109604781</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0.5439382344024476</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>103.3249685652704</v>
+        <v>73.36175976093796</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>184.7919931136468</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5257268895123</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
         <v>405.7415719969023</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>55.46283985320549</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.36364767284908</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="U46" t="n">
-        <v>180.0783550618347</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256.869462878957</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="C3" t="n">
-        <v>256.869462878957</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="D3" t="n">
-        <v>256.869462878957</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="E3" t="n">
-        <v>256.869462878957</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>653.3084181626359</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>425.084799899025</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>425.084799899025</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W3" t="n">
-        <v>425.084799899025</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X3" t="n">
-        <v>425.084799899025</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y3" t="n">
-        <v>425.084799899025</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4530,10 +4530,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>730.8505943024719</v>
+        <v>753.253405673024</v>
       </c>
       <c r="C5" t="n">
-        <v>730.8505943024719</v>
+        <v>753.253405673024</v>
       </c>
       <c r="D5" t="n">
-        <v>730.8505943024719</v>
+        <v>753.253405673024</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F5" t="n">
+        <v>502.8591282797204</v>
+      </c>
+      <c r="G5" t="n">
         <v>487.4018176583718</v>
-      </c>
-      <c r="G5" t="n">
-        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
         <v>243.9530410142718</v>
@@ -4609,10 +4609,10 @@
         <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>753.253405673024</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>753.253405673024</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318.9581538727056</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>144.5051245915786</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>144.5051245915786</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>144.5051245915786</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>526.7184526376595</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W6" t="n">
-        <v>526.7184526376595</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X6" t="n">
-        <v>526.7184526376595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>318.9581538727056</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4752,25 +4752,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>761.6974622895962</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2486856454962</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D8" t="n">
-        <v>518.2486856454962</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4840,16 +4840,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>761.6974622895962</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.7661011803829</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C9" t="n">
-        <v>158.7661011803829</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D9" t="n">
-        <v>158.7661011803829</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>158.7661011803829</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>555.205056464062</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>326.981438200451</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>326.981438200451</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>326.981438200451</v>
+        <v>924.581222859249</v>
       </c>
       <c r="X9" t="n">
-        <v>326.981438200451</v>
+        <v>716.7297226537162</v>
       </c>
       <c r="Y9" t="n">
-        <v>326.981438200451</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.45932575975219</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C11" t="n">
-        <v>32.45932575975219</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D11" t="n">
-        <v>32.45932575975219</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975219</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G11" t="n">
         <v>32.45932575975219</v>
@@ -5041,13 +5041,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011321</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
         <v>838.8947028941458</v>
@@ -5056,37 +5056,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1535.43291133088</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V11" t="n">
-        <v>1535.43291133088</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W11" t="n">
-        <v>1182.664256060766</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="X11" t="n">
-        <v>809.1984977996857</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="Y11" t="n">
-        <v>419.059165823874</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>322.1666171839769</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>322.1666171839769</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>322.1666171839769</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>175.6320592108619</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>37.21968597003209</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>534.697260562599</v>
+        <v>498.850487931855</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313476</v>
+        <v>898.268624536118</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082811</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1541.568727888341</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U12" t="n">
-        <v>1541.568727888341</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V12" t="n">
-        <v>1541.568727888341</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="W12" t="n">
-        <v>1541.568727888341</v>
+        <v>704.4711466706367</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.635721271956</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>496.6196464651039</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="F13" t="n">
         <v>32.45932575975219</v>
@@ -5202,7 +5202,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5220,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>834.8212426942232</v>
+        <v>1197.050067012451</v>
       </c>
       <c r="C14" t="n">
-        <v>834.8212426942232</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D14" t="n">
-        <v>834.8212426942232</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E14" t="n">
-        <v>834.8212426942232</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F14" t="n">
-        <v>834.8212426942232</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
@@ -5308,22 +5308,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942232</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V14" t="n">
-        <v>834.8212426942232</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W14" t="n">
-        <v>834.8212426942232</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X14" t="n">
-        <v>834.8212426942232</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="Y14" t="n">
-        <v>834.8212426942232</v>
+        <v>1311.402045381201</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>771.9123356732376</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>597.4593063921106</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L15" t="n">
-        <v>534.6972605625989</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668618</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N15" t="n">
-        <v>1335.799553443795</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1422.063279093103</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1193.860611630581</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V15" t="n">
-        <v>1157.875422507002</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="W15" t="n">
-        <v>1157.875422507002</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="X15" t="n">
-        <v>1157.875422507002</v>
+        <v>940.1276726933056</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>940.1276726933056</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975219</v>
@@ -5475,13 +5475,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1145.475793905159</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C17" t="n">
-        <v>776.5132769647469</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D17" t="n">
-        <v>418.2475783579964</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F17" t="n">
         <v>32.45932575975219</v>
@@ -5545,22 +5545,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1592.504227774808</v>
       </c>
       <c r="U17" t="n">
-        <v>1532.07563396928</v>
+        <v>1592.504227774808</v>
       </c>
       <c r="V17" t="n">
-        <v>1532.07563396928</v>
+        <v>1592.504227774808</v>
       </c>
       <c r="W17" t="n">
-        <v>1532.07563396928</v>
+        <v>1592.504227774808</v>
       </c>
       <c r="X17" t="n">
-        <v>1532.07563396928</v>
+        <v>1219.038469513729</v>
       </c>
       <c r="Y17" t="n">
-        <v>1532.07563396928</v>
+        <v>828.8991375379168</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>247.7198513240011</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C18" t="n">
-        <v>73.26682204287411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D18" t="n">
-        <v>73.26682204287411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E18" t="n">
         <v>32.45932575975219</v>
@@ -5594,13 +5594,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L18" t="n">
-        <v>534.697260562599</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M18" t="n">
         <v>546.7891136313475</v>
@@ -5624,22 +5624,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894784</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577356</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W18" t="n">
-        <v>455.571351529534</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240011</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.7198513240011</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="F19" t="n">
         <v>32.45932575975219</v>
@@ -5700,25 +5700,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>798.0950468258075</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C20" t="n">
-        <v>798.0950468258075</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D20" t="n">
-        <v>798.0950468258075</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E20" t="n">
-        <v>412.3067942275632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F20" t="n">
-        <v>412.3067942275632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>412.3067942275632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.397688154633</v>
+        <v>1448.022325241267</v>
       </c>
       <c r="T20" t="n">
-        <v>1425.397688154633</v>
+        <v>1448.022325241267</v>
       </c>
       <c r="U20" t="n">
-        <v>1171.560805086887</v>
+        <v>1448.022325241267</v>
       </c>
       <c r="V20" t="n">
-        <v>1171.560805086887</v>
+        <v>1116.959437897697</v>
       </c>
       <c r="W20" t="n">
-        <v>1171.560805086887</v>
+        <v>764.1907826275826</v>
       </c>
       <c r="X20" t="n">
-        <v>798.0950468258075</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="Y20" t="n">
-        <v>798.0950468258075</v>
+        <v>390.7250243665027</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.5006335659854</v>
+        <v>407.2636699669852</v>
       </c>
       <c r="C21" t="n">
-        <v>360.5006335659854</v>
+        <v>407.2636699669852</v>
       </c>
       <c r="D21" t="n">
-        <v>360.5006335659854</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="E21" t="n">
-        <v>360.5006335659854</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H21" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L21" t="n">
-        <v>505.9483651585071</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>905.3665017627701</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082811</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T21" t="n">
-        <v>1254.561044051269</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U21" t="n">
-        <v>1254.561044051269</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V21" t="n">
-        <v>1019.408935819526</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W21" t="n">
-        <v>944.32776955654</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="X21" t="n">
-        <v>736.4762693510072</v>
+        <v>415.2220863658354</v>
       </c>
       <c r="Y21" t="n">
-        <v>528.7159705860533</v>
+        <v>415.2220863658354</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="C22" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="D22" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="E22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>342.9433419838693</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5937,25 +5937,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="X22" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="Y22" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1270.197632717495</v>
+        <v>732.2314731742442</v>
       </c>
       <c r="C23" t="n">
-        <v>1270.197632717495</v>
+        <v>732.2314731742442</v>
       </c>
       <c r="D23" t="n">
-        <v>1270.197632717495</v>
+        <v>732.2314731742442</v>
       </c>
       <c r="E23" t="n">
-        <v>1270.197632717495</v>
+        <v>732.2314731742442</v>
       </c>
       <c r="F23" t="n">
-        <v>860.3576610034522</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G23" t="n">
-        <v>450.5176892894095</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>113.7092895765604</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6004,37 +6004,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W23" t="n">
-        <v>1270.197632717495</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X23" t="n">
-        <v>1270.197632717495</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="Y23" t="n">
-        <v>1270.197632717495</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>612.6748806677822</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>438.2218513866552</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D24" t="n">
-        <v>289.2874417254039</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
-        <v>289.2874417254039</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
         <v>32.45932575975218</v>
@@ -6068,16 +6068,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321102</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N24" t="n">
         <v>1057.709031609043</v>
@@ -6092,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>944.9608164894781</v>
+        <v>1072.277455785845</v>
       </c>
       <c r="V24" t="n">
-        <v>709.8087082577354</v>
+        <v>837.1253475541027</v>
       </c>
       <c r="W24" t="n">
-        <v>612.6748806677822</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="X24" t="n">
-        <v>612.6748806677822</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y24" t="n">
-        <v>612.6748806677822</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144411</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144411</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144411</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.966287987609</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="V25" t="n">
-        <v>1583.596182181372</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="W25" t="n">
-        <v>1294.179012144411</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144411</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144411</v>
+        <v>180.3724193421453</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>776.5132769647469</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C26" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
-        <v>418.2475783579964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K26" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q26" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1286.226725594945</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="U26" t="n">
-        <v>1107.576164308317</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="V26" t="n">
-        <v>776.5132769647469</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="W26" t="n">
-        <v>776.5132769647469</v>
+        <v>1165.026932937056</v>
       </c>
       <c r="X26" t="n">
-        <v>776.5132769647469</v>
+        <v>791.5611746759756</v>
       </c>
       <c r="Y26" t="n">
-        <v>776.5132769647469</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>366.1498100463347</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="C27" t="n">
-        <v>191.6967807652077</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975219</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975219</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975219</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
-        <v>505.9483651585071</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M27" t="n">
-        <v>905.3665017627701</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.96628798761</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U27" t="n">
-        <v>1439.366410996834</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V27" t="n">
-        <v>1204.214302765091</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W27" t="n">
-        <v>949.9769460368893</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X27" t="n">
-        <v>742.1254458313565</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y27" t="n">
-        <v>534.3651470664026</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6414,22 +6414,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="U28" t="n">
-        <v>287.1438139656391</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1249.50052972653</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C29" t="n">
-        <v>1249.50052972653</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D29" t="n">
-        <v>1237.927521786082</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E29" t="n">
-        <v>852.139269187838</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F29" t="n">
-        <v>442.299297473795</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K29" t="n">
         <v>247.3580469011319</v>
@@ -6487,28 +6487,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="X29" t="n">
-        <v>1249.50052972653</v>
+        <v>912.7609673338657</v>
       </c>
       <c r="Y29" t="n">
-        <v>1249.50052972653</v>
+        <v>522.6216353580539</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>704.7131542729894</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C30" t="n">
-        <v>530.2601249918624</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D30" t="n">
-        <v>381.3257153306112</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
         <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313476</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082811</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1516.743907184261</v>
+        <v>1489.050696095083</v>
       </c>
       <c r="T30" t="n">
-        <v>1315.840898289754</v>
+        <v>1489.050696095083</v>
       </c>
       <c r="U30" t="n">
-        <v>1315.840898289754</v>
+        <v>1260.848028632561</v>
       </c>
       <c r="V30" t="n">
-        <v>1080.688790058011</v>
+        <v>1025.695920400819</v>
       </c>
       <c r="W30" t="n">
-        <v>1080.688790058011</v>
+        <v>771.4585636726172</v>
       </c>
       <c r="X30" t="n">
-        <v>1080.688790058011</v>
+        <v>563.6070634670843</v>
       </c>
       <c r="Y30" t="n">
-        <v>872.9284912930575</v>
+        <v>355.8467647021305</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975219</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975219</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6648,25 +6648,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975219</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975219</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975219</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975219</v>
+        <v>351.9968435026035</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1249.50052972653</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C32" t="n">
-        <v>1249.50052972653</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D32" t="n">
-        <v>891.2348311197793</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E32" t="n">
-        <v>505.4465785215351</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F32" t="n">
-        <v>95.6066068074922</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011319</v>
@@ -6736,16 +6736,16 @@
         <v>1622.96628798761</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.96628798761</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.96628798761</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="X32" t="n">
-        <v>1249.50052972653</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="Y32" t="n">
-        <v>1249.50052972653</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.45932575975219</v>
+        <v>763.7901509409525</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975219</v>
+        <v>589.3371216598255</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975219</v>
+        <v>440.4027119985741</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668621</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N33" t="n">
-        <v>1190.717019112289</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O33" t="n">
-        <v>1513.730526286847</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051269</v>
+        <v>1603.120562420239</v>
       </c>
       <c r="U33" t="n">
-        <v>1105.675926710251</v>
+        <v>1374.917894957717</v>
       </c>
       <c r="V33" t="n">
-        <v>870.5238184785085</v>
+        <v>1139.765786725974</v>
       </c>
       <c r="W33" t="n">
-        <v>616.2864617503069</v>
+        <v>1139.765786725974</v>
       </c>
       <c r="X33" t="n">
-        <v>408.4349615447741</v>
+        <v>1139.765786725974</v>
       </c>
       <c r="Y33" t="n">
-        <v>200.6746627798202</v>
+        <v>932.0054879610204</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.96628798761</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X34" t="n">
-        <v>1514.971591287942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.45932575975219</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="C35" t="n">
-        <v>32.45932575975219</v>
+        <v>196.7064701724327</v>
       </c>
       <c r="D35" t="n">
-        <v>32.45932575975219</v>
+        <v>196.7064701724327</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975219</v>
+        <v>196.7064701724327</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975219</v>
+        <v>196.7064701724327</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975219</v>
+        <v>196.7064701724327</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>196.7064701724327</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
         <v>247.3580469011319</v>
@@ -6946,7 +6946,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6964,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1513.727143404336</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1513.727143404336</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1513.727143404336</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1182.664256060766</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W35" t="n">
-        <v>1182.664256060766</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X35" t="n">
-        <v>809.1984977996857</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="Y35" t="n">
-        <v>419.059165823874</v>
+        <v>565.6689871128444</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>740.9541542535677</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="C36" t="n">
-        <v>566.5011249724407</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D36" t="n">
-        <v>417.5667153111894</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E36" t="n">
-        <v>258.3292603057339</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F36" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L36" t="n">
-        <v>534.697260562599</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M36" t="n">
-        <v>934.1153971668621</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N36" t="n">
-        <v>1335.799553443796</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O36" t="n">
-        <v>1513.730526286846</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1579.018646972324</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1579.018646972324</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1579.018646972324</v>
+        <v>1237.659749954077</v>
       </c>
       <c r="U36" t="n">
-        <v>1579.018646972324</v>
+        <v>1237.659749954077</v>
       </c>
       <c r="V36" t="n">
-        <v>1579.018646972324</v>
+        <v>1237.659749954077</v>
       </c>
       <c r="W36" t="n">
-        <v>1324.781290244122</v>
+        <v>983.4223932258753</v>
       </c>
       <c r="X36" t="n">
-        <v>1116.92979003859</v>
+        <v>983.4223932258753</v>
       </c>
       <c r="Y36" t="n">
-        <v>909.1694912736357</v>
+        <v>983.4223932258753</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7119,28 +7119,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="S37" t="n">
-        <v>139.6199360758255</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="T37" t="n">
-        <v>139.6199360758255</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="U37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="V37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7201,25 +7201,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U38" t="n">
-        <v>1479.895958610329</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V38" t="n">
-        <v>1148.833071266758</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W38" t="n">
-        <v>796.0644159966438</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X38" t="n">
-        <v>422.5986577355639</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.45932575975218</v>
+        <v>1035.258356178821</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>783.6358765083228</v>
+        <v>396.1453840755233</v>
       </c>
       <c r="C39" t="n">
-        <v>609.1828472271958</v>
+        <v>221.6923547943963</v>
       </c>
       <c r="D39" t="n">
-        <v>460.2484375659445</v>
+        <v>221.6923547943963</v>
       </c>
       <c r="E39" t="n">
-        <v>301.010982560489</v>
+        <v>62.45489978894076</v>
       </c>
       <c r="F39" t="n">
-        <v>154.476424587374</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497703</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7280,25 +7280,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.763620525087</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V39" t="n">
-        <v>1159.611512293345</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="W39" t="n">
-        <v>1159.611512293345</v>
+        <v>772.1210198605452</v>
       </c>
       <c r="X39" t="n">
-        <v>1159.611512293345</v>
+        <v>772.1210198605452</v>
       </c>
       <c r="Y39" t="n">
-        <v>951.8512135283909</v>
+        <v>564.3607210955913</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.966287987609</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.966287987609</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.966287987609</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X40" t="n">
-        <v>1394.976737089592</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1369.129404919863</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C41" t="n">
-        <v>1369.129404919863</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D41" t="n">
-        <v>1010.863706313113</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E41" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F41" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975219</v>
@@ -7444,19 +7444,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1369.129404919863</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="V41" t="n">
-        <v>1369.129404919863</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="W41" t="n">
-        <v>1369.129404919863</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="X41" t="n">
-        <v>1369.129404919863</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="Y41" t="n">
-        <v>1369.129404919863</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>709.8087082577356</v>
+        <v>207.4617876008817</v>
       </c>
       <c r="C42" t="n">
-        <v>709.8087082577356</v>
+        <v>33.00875831975466</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>33.00875831975466</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809358</v>
+        <v>201.1187329501918</v>
       </c>
       <c r="L42" t="n">
-        <v>534.697260562599</v>
+        <v>498.850487931855</v>
       </c>
       <c r="M42" t="n">
-        <v>656.0248753321101</v>
+        <v>898.268624536118</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609043</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7517,25 +7517,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T42" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U42" t="n">
-        <v>944.9608164894784</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V42" t="n">
-        <v>709.8087082577356</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W42" t="n">
-        <v>709.8087082577356</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="X42" t="n">
-        <v>709.8087082577356</v>
+        <v>415.2220863658356</v>
       </c>
       <c r="Y42" t="n">
-        <v>709.8087082577356</v>
+        <v>207.4617876008817</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="E43" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="F43" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="G43" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="H43" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J43" t="n">
         <v>32.45932575975219</v>
@@ -7605,16 +7605,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>766.0626579682519</v>
+        <v>1038.797848090511</v>
       </c>
       <c r="C44" t="n">
-        <v>766.0626579682519</v>
+        <v>1038.797848090511</v>
       </c>
       <c r="D44" t="n">
-        <v>766.0626579682519</v>
+        <v>1038.797848090511</v>
       </c>
       <c r="E44" t="n">
-        <v>766.0626579682519</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F44" t="n">
         <v>442.299297473795</v>
@@ -7648,52 +7648,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011316</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T44" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U44" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V44" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W44" t="n">
-        <v>1156.201989944064</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X44" t="n">
-        <v>1156.201989944064</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y44" t="n">
-        <v>766.0626579682519</v>
+        <v>1425.397688154633</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>558.3789402401554</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="C45" t="n">
-        <v>558.3789402401554</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="D45" t="n">
-        <v>409.4445305789042</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="E45" t="n">
-        <v>250.2070755734487</v>
+        <v>88.48239631854563</v>
       </c>
       <c r="F45" t="n">
-        <v>250.2070755734487</v>
+        <v>88.48239631854563</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7947023326189</v>
+        <v>88.48239631854563</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>88.48239631854563</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
@@ -7739,40 +7739,40 @@
         <v>729.6092173456784</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1597.346441853418</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1597.346441853418</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T45" t="n">
-        <v>1396.443432958912</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U45" t="n">
-        <v>1396.443432958912</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V45" t="n">
-        <v>1396.443432958912</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W45" t="n">
-        <v>1142.20607623071</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X45" t="n">
-        <v>934.3545760251773</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y45" t="n">
-        <v>726.5942772602234</v>
+        <v>247.7198513240011</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F46" t="n">
         <v>32.45932575975219</v>
@@ -7836,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U46" t="n">
-        <v>179.3492732576626</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V46" t="n">
-        <v>179.3492732576626</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>334.6314840602835</v>
       </c>
       <c r="M12" t="n">
-        <v>74.46639351210658</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,13 +9020,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
-        <v>112.9628022719302</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M18" t="n">
-        <v>74.46639351210649</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
@@ -9482,7 +9482,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>92.88803957954804</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304796</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9956,16 +9956,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>203.2271928126418</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>281.038292321383</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>455.0874215304797</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>308.5394070542103</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>73.77211287831322</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,13 +10679,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
-        <v>247.3143048004598</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>73.77211287831322</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>86.93262649026374</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>241.381361814901</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>257.2956640563643</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>184.8055467452</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831321</v>
       </c>
       <c r="Q42" t="n">
         <v>99.7381345027554</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>380.7598033349562</v>
+        <v>270.4206501018624</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>164.6404713469059</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>115.0873007090229</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.4778658044343</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>31.59930865325612</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4446432747563</v>
       </c>
       <c r="G13" t="n">
         <v>167.7266695472104</v>
@@ -23439,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>269.5253830784176</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>141.5749915916982</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,13 +23633,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>197.1752499170823</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>200.9881728452665</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4446432747563</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>56.55224943852487</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G17" t="n">
         <v>414.7135041305339</v>
@@ -23785,10 +23785,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>190.3590408123669</v>
       </c>
       <c r="U17" t="n">
-        <v>161.3167667589226</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23819,7 +23819,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>117.2456591351102</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>105.8958173189843</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>72.05928826199329</v>
       </c>
       <c r="G19" t="n">
         <v>167.7266695472104</v>
@@ -23940,16 +23940,16 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>180.2156082447829</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23974,10 +23974,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,10 +23986,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>145.1507914431576</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>22.39839071576833</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>158.6543514150056</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>177.3646285605635</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>149.6064425243204</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>40.34495843365659</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809156</v>
+        <v>119.8431917982666</v>
       </c>
       <c r="G23" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>107.3220053319298</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
         <v>78.54202280713804</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,19 +24341,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>45.45988840512797</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>155.532493846866</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24420,13 +24420,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>107.2391720194987</v>
       </c>
       <c r="V25" t="n">
-        <v>213.1612385756532</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>116.3974876404047</v>
       </c>
       <c r="U26" t="n">
-        <v>74.43445856330658</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24539,7 +24539,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>28.06309967993354</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24575,10 +24575,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>44.15676256702835</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>74.67247646141476</v>
@@ -24654,13 +24654,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>48.81882066262608</v>
       </c>
       <c r="U28" t="n">
-        <v>212.9428526967575</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>303.2147271580641</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>343.22576375964</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.971932133631526</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,10 +24776,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>60.66705569610038</v>
+        <v>33.25077671781503</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24888,7 +24888,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24897,7 +24897,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>146.0486391109154</v>
+        <v>242.9803828044848</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>352.1976958932713</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24976,7 +24976,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>273.7836169348211</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,22 +24998,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -25046,22 +25046,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>179.2467104938649</v>
       </c>
       <c r="U33" t="n">
-        <v>78.52437462028919</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>59.32005692394495</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>118.794905656366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25174,7 +25174,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>25.15479654201619</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>87.44616069720632</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.07541989314297</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>63.85130334205621</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,16 +25359,16 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>7.156479150719406</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>180.2156082447829</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>177.6347436177664</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25441,22 +25441,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>109.6588881535608</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25475,16 +25475,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>115.3735941044872</v>
       </c>
       <c r="G39" t="n">
-        <v>16.23132166907585</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -25520,19 +25520,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25596,7 +25596,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>126.2142705097871</v>
       </c>
       <c r="S40" t="n">
         <v>219.4103988718534</v>
@@ -25605,7 +25605,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>224.7931773182393</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25684,7 +25684,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>197.3298727017548</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>104.344364468591</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.1011422209985</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25803,13 +25803,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>56.55224943852481</v>
+        <v>86.51545824285725</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,10 +25873,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>197.138376958615</v>
       </c>
       <c r="F44" t="n">
-        <v>86.35031885219911</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
         <v>8.971932133631583</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.07918295393254</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>55.21993682542643</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
@@ -26076,16 +26076,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>187.8398609411363</v>
       </c>
       <c r="U46" t="n">
-        <v>106.2262573958608</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>467846.2169530765</v>
+        <v>467846.216953076</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>467846.2169530764</v>
+        <v>467846.216953076</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>467846.2169530761</v>
+        <v>467846.2169530762</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>467846.2169530764</v>
+        <v>467846.2169530762</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>467846.2169530759</v>
+        <v>467846.2169530762</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>467846.2169530761</v>
+        <v>467846.2169530762</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>467846.2169530762</v>
+        <v>467846.2169530765</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>467846.216953076</v>
+        <v>467846.2169530764</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>467846.2169530761</v>
+        <v>467846.2169530762</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>467846.2169530762</v>
+        <v>467846.2169530759</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
         <v>288399.0110372189</v>
@@ -26328,34 +26328,34 @@
         <v>288399.0110372189</v>
       </c>
       <c r="G2" t="n">
+        <v>288399.011037219</v>
+      </c>
+      <c r="H2" t="n">
         <v>288399.0110372189</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>288399.0110372191</v>
+      </c>
+      <c r="J2" t="n">
         <v>288399.011037219</v>
-      </c>
-      <c r="I2" t="n">
-        <v>288399.0110372189</v>
-      </c>
-      <c r="J2" t="n">
-        <v>288399.0110372191</v>
       </c>
       <c r="K2" t="n">
         <v>288399.011037219</v>
       </c>
       <c r="L2" t="n">
+        <v>288399.0110372189</v>
+      </c>
+      <c r="M2" t="n">
         <v>288399.011037219</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>288399.0110372189</v>
-      </c>
-      <c r="N2" t="n">
-        <v>288399.011037219</v>
       </c>
       <c r="O2" t="n">
         <v>288399.011037219</v>
       </c>
       <c r="P2" t="n">
-        <v>288399.011037219</v>
+        <v>288399.0110372189</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252468</v>
+        <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244791</v>
+        <v>41050.69786244792</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>8850.046967220573</v>
       </c>
       <c r="G4" t="n">
-        <v>8850.046967220573</v>
+        <v>8850.046967220575</v>
       </c>
       <c r="H4" t="n">
         <v>8850.046967220573</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
@@ -26487,25 +26487,25 @@
         <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="K5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="L5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="M5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="N5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="K5" t="n">
-        <v>27864.35291375757</v>
-      </c>
-      <c r="L5" t="n">
-        <v>27864.35291375757</v>
-      </c>
-      <c r="M5" t="n">
-        <v>27864.35291375757</v>
-      </c>
-      <c r="N5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137659.8556592802</v>
+        <v>137659.85565928</v>
       </c>
       <c r="C6" t="n">
         <v>218429.2871908278</v>
       </c>
       <c r="D6" t="n">
-        <v>218429.2871908279</v>
+        <v>218429.2871908277</v>
       </c>
       <c r="E6" t="n">
-        <v>84744.44103099394</v>
+        <v>74899.84163761725</v>
       </c>
       <c r="F6" t="n">
-        <v>251684.6111562408</v>
+        <v>241840.011762864</v>
       </c>
       <c r="G6" t="n">
-        <v>251684.6111562408</v>
+        <v>241840.0117628642</v>
       </c>
       <c r="H6" t="n">
-        <v>251684.6111562408</v>
+        <v>241840.011762864</v>
       </c>
       <c r="I6" t="n">
-        <v>251684.6111562407</v>
+        <v>241840.0117628642</v>
       </c>
       <c r="J6" t="n">
-        <v>188624.6685571347</v>
+        <v>178780.0691637579</v>
       </c>
       <c r="K6" t="n">
-        <v>251684.6111562409</v>
+        <v>241840.0117628642</v>
       </c>
       <c r="L6" t="n">
-        <v>251684.6111562408</v>
+        <v>241840.011762864</v>
       </c>
       <c r="M6" t="n">
-        <v>210633.9132937929</v>
+        <v>200789.3139004162</v>
       </c>
       <c r="N6" t="n">
-        <v>251684.6111562409</v>
+        <v>241840.011762864</v>
       </c>
       <c r="O6" t="n">
-        <v>251684.6111562409</v>
+        <v>241840.0117628641</v>
       </c>
       <c r="P6" t="n">
-        <v>251684.6111562409</v>
+        <v>241840.011762864</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
         <v>146.571804419537</v>
@@ -26755,7 +26755,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
         <v>405.7415719969023</v>
@@ -26807,19 +26807,19 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="K4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="L4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="M4" t="n">
         <v>405.7415719969023</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>283.1818162837787</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>296.8154002296654</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>91.94560882220358</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>164.3644839767823</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>311.7191632230924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>320.8952054949274</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2406949045046</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>116.8541000790599</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>209.1797431292663</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27912,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>195.8925415817687</v>
+        <v>218.0713248386154</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>67.24215589519406</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>212.6138098360463</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044663</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M13" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118892</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32171,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32180,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32487,16 +32487,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32505,7 +32505,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,40 +32624,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -34783,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>264.5302852029488</v>
       </c>
       <c r="M12" t="n">
-        <v>12.21399299873596</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.690655761624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714792</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
-        <v>45.37675286849161</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M18" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36211,16 +36211,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>43.54219004597066</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.690655761624</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36293,10 +36293,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>153.8813432790645</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36919,19 +36919,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>218.7858918080124</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37159,16 +37159,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>259.1935575206329</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37399,13 +37399,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
-        <v>179.7282553970212</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>192.0355122813236</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223149</v>
+        <v>170.3630375661006</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>122.5531462318294</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
@@ -37876,7 +37876,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.690655761624</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680266</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>331.4139538013789</v>
+        <v>221.074800568285</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
@@ -38116,7 +38116,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
